--- a/Beer Data.xlsx
+++ b/Beer Data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>Brewery</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Lon</t>
   </si>
   <si>
-    <t>The Olde Meclkenburg Brewery</t>
-  </si>
-  <si>
     <t>Sycamore Brewing</t>
   </si>
   <si>
@@ -89,18 +86,9 @@
     <t>Bold Missy Brewery</t>
   </si>
   <si>
-    <t>Divine Barrel Brewing Co.</t>
-  </si>
-  <si>
-    <t>Catawba Brewing Co.</t>
-  </si>
-  <si>
     <t>Hyde Brewing Co.</t>
   </si>
   <si>
-    <t>Avenge Brewing Co.</t>
-  </si>
-  <si>
     <t>Rivermen Brewing Co.</t>
   </si>
   <si>
@@ -134,9 +122,6 @@
     <t>Primal Brewery</t>
   </si>
   <si>
-    <t>Third Dimension Brewing</t>
-  </si>
-  <si>
     <t>Barking Duck Brewing Company</t>
   </si>
   <si>
@@ -173,9 +158,6 @@
     <t>SOUTH CHARLOTTE</t>
   </si>
   <si>
-    <t>UPTOWN</t>
-  </si>
-  <si>
     <t>BELMONT, NC</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>HUNTERSVILLE, NC</t>
   </si>
   <si>
-    <t>KANNAPOLIS, NC</t>
-  </si>
-  <si>
     <t>MINT HILL, NC</t>
   </si>
   <si>
@@ -204,13 +183,122 @@
   </si>
   <si>
     <t>Year Opened</t>
+  </si>
+  <si>
+    <t>The Olde Mecklenburg Brewery</t>
+  </si>
+  <si>
+    <t>Brewery Website</t>
+  </si>
+  <si>
+    <t>http://www.rivermenbrewingcompany.com/</t>
+  </si>
+  <si>
+    <t>http://www.yorkchesterbrew.com/</t>
+  </si>
+  <si>
+    <t>http://www.cabarrusbrewing.com/</t>
+  </si>
+  <si>
+    <t>http://www.highbranchbrewing.com/</t>
+  </si>
+  <si>
+    <t>http://www.26acres.com/</t>
+  </si>
+  <si>
+    <t>http://www.assclownbrewing.com/</t>
+  </si>
+  <si>
+    <t>http://www.baynebrewingcompany.com/</t>
+  </si>
+  <si>
+    <t>http://www.d9brewing.com/</t>
+  </si>
+  <si>
+    <t>http://oledallasbrewery.com.s3-website-us-east-1.amazonaws.com/</t>
+  </si>
+  <si>
+    <t>http://www.blueblazebrewing.com/</t>
+  </si>
+  <si>
+    <t>http://www.primalbrewery.com/</t>
+  </si>
+  <si>
+    <t>http://www.oldemeckbrew.com/</t>
+  </si>
+  <si>
+    <t>http://sugarcreekbrewing.com/</t>
+  </si>
+  <si>
+    <t>https://www.thirstynomadbrewing.com/</t>
+  </si>
+  <si>
+    <t>http://www.barkingduckbrew.com/</t>
+  </si>
+  <si>
+    <t>http://www.33brewingcompany.com/</t>
+  </si>
+  <si>
+    <t>http://www.ghostfacebrewing.com/</t>
+  </si>
+  <si>
+    <t>http://www.lakenormanbrewingcompany.com/</t>
+  </si>
+  <si>
+    <t>http://nodabrewing.com/</t>
+  </si>
+  <si>
+    <t>https://birdsongbrewing.com/</t>
+  </si>
+  <si>
+    <t>https://heistbrewery.com/</t>
+  </si>
+  <si>
+    <t>http://www.freerangebrewing.com/</t>
+  </si>
+  <si>
+    <t>http://legionbrewing.com/</t>
+  </si>
+  <si>
+    <t>http://www.threespiritsbrewery.com/</t>
+  </si>
+  <si>
+    <t>https://woodenrobotbrewery.com/</t>
+  </si>
+  <si>
+    <t>http://www.discoverlennyboy.com/</t>
+  </si>
+  <si>
+    <t>http://www.triplecbrewing.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>www.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF006621"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>unknownbrewing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006621"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.com</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +313,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006621"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF006621"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,9 +346,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G37"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,14 +641,15 @@
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -556,407 +658,730 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
+      <c r="D2">
+        <v>35.244508000000003</v>
+      </c>
+      <c r="E2">
+        <v>-81.035214999999994</v>
+      </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
+      <c r="D3">
+        <v>35.236798</v>
+      </c>
+      <c r="E3">
+        <v>-81.015675000000002</v>
+      </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2015</v>
       </c>
+      <c r="D4">
+        <v>35.414006999999998</v>
+      </c>
+      <c r="E4">
+        <v>-80.603076000000001</v>
+      </c>
       <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2015</v>
       </c>
+      <c r="D5">
+        <v>35.414689000000003</v>
+      </c>
+      <c r="E5">
+        <v>-80.603320999999994</v>
+      </c>
       <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>2016</v>
       </c>
+      <c r="D6">
+        <v>35.388328000000001</v>
+      </c>
+      <c r="E6">
+        <v>-80.723168999999999</v>
+      </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>2011</v>
       </c>
+      <c r="D7">
+        <v>35.457498999999999</v>
+      </c>
+      <c r="E7">
+        <v>-80.854837000000003</v>
+      </c>
       <c r="F7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>2014</v>
       </c>
+      <c r="D8">
+        <v>35.480066000000001</v>
+      </c>
+      <c r="E8">
+        <v>-80.891150999999994</v>
+      </c>
       <c r="F8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>2013</v>
       </c>
+      <c r="D9">
+        <v>35.461134000000001</v>
+      </c>
+      <c r="E9">
+        <v>-80.847375999999997</v>
+      </c>
       <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
+      <c r="D10">
+        <v>35.317143999999999</v>
+      </c>
+      <c r="E10">
+        <v>-81.217984000000001</v>
+      </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>2016</v>
       </c>
+      <c r="D11">
+        <v>35.240845</v>
+      </c>
+      <c r="E11">
+        <v>-80.867480999999998</v>
+      </c>
       <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>2017</v>
       </c>
+      <c r="D12">
+        <v>35.265687999999997</v>
+      </c>
+      <c r="E12">
+        <v>-81.187674000000001</v>
+      </c>
       <c r="F12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>2013</v>
       </c>
+      <c r="D13">
+        <v>35.437142000000001</v>
+      </c>
+      <c r="E13">
+        <v>-80.843672999999995</v>
+      </c>
       <c r="F13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C14">
+        <v>2009</v>
+      </c>
+      <c r="D14">
+        <v>35.187313000000003</v>
+      </c>
+      <c r="E14">
+        <v>-80.881820000000005</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2014</v>
+      </c>
+      <c r="D15">
+        <v>35.185386000000001</v>
+      </c>
+      <c r="E15">
+        <v>-80.880982000000003</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="D16">
+        <v>35.188496999999998</v>
+      </c>
+      <c r="E16">
+        <v>-80.890911000000003</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>2014</v>
+      </c>
+      <c r="D17">
+        <v>35.152372999999997</v>
+      </c>
+      <c r="E17">
+        <v>-80.680012000000005</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
         <v>2017</v>
       </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>2009</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="D18">
+        <v>35.590274000000001</v>
+      </c>
+      <c r="E18">
+        <v>-80.792220999999998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>2016</v>
+      </c>
+      <c r="D19">
+        <v>35.579962000000002</v>
+      </c>
+      <c r="E19">
+        <v>-80.804496</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>2015</v>
+      </c>
+      <c r="D20">
+        <v>35.624467000000003</v>
+      </c>
+      <c r="E20">
+        <v>-80.803462999999994</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>4.2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
-        <v>2014</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>2016</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>2014</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>2017</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>2016</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>2011</v>
+      </c>
+      <c r="D21">
+        <v>35.251579</v>
+      </c>
+      <c r="E21">
+        <v>-80.812408000000005</v>
+      </c>
+      <c r="F21" t="s">
         <v>38</v>
       </c>
-      <c r="C21">
-        <v>2015</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>2011</v>
       </c>
+      <c r="D22">
+        <v>35.230617000000002</v>
+      </c>
+      <c r="E22">
+        <v>-80.826515000000001</v>
+      </c>
       <c r="F22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>2012</v>
+      </c>
+      <c r="D23">
+        <v>35.245432999999998</v>
+      </c>
+      <c r="E23">
+        <v>-80.809428999999994</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>2015</v>
+      </c>
+      <c r="D24">
+        <v>35.240482999999998</v>
+      </c>
+      <c r="E24">
+        <v>-80.813321000000002</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>2017</v>
+      </c>
+      <c r="D25">
+        <v>35.249302</v>
+      </c>
+      <c r="E25">
+        <v>-80.796682000000004</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>2015</v>
+      </c>
+      <c r="D26">
+        <v>35.218330000000002</v>
+      </c>
+      <c r="E26">
+        <v>-80.812957999999995</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2015</v>
+      </c>
+      <c r="D27">
+        <v>35.171804000000002</v>
+      </c>
+      <c r="E27">
+        <v>-80.878652000000002</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2014</v>
+      </c>
+      <c r="D28">
+        <v>35.208703</v>
+      </c>
+      <c r="E28">
+        <v>-80.862741999999997</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
+      <c r="C29">
+        <v>2015</v>
+      </c>
+      <c r="D29">
+        <v>35.216898999999998</v>
+      </c>
+      <c r="E29">
+        <v>-80.857108999999994</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>2016</v>
+      </c>
+      <c r="D30">
+        <v>35.201391000000001</v>
+      </c>
+      <c r="E30">
+        <v>-80.873626999999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>2012</v>
+      </c>
+      <c r="D31">
+        <v>35.201065999999997</v>
+      </c>
+      <c r="E31">
+        <v>-80.869569999999996</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
         <v>2011</v>
       </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>2012</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>2015</v>
-      </c>
-      <c r="F25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="D32">
+        <v>35.220452999999999</v>
+      </c>
+      <c r="E32">
+        <v>-80.857539000000003</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C26">
+      <c r="C33">
         <v>2017</v>
       </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>2017</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>2015</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>2017</v>
-      </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>2015</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>2014</v>
-      </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>2015</v>
-      </c>
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>2016</v>
+      <c r="D33">
+        <v>35.20055</v>
+      </c>
+      <c r="E33">
+        <v>-80.869258000000002</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <v>2012</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>2011</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>2017</v>
-      </c>
-      <c r="F36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37">
-        <v>2016</v>
-      </c>
-      <c r="F37" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:G1">
